--- a/Code/Results/Cases/Case_3_76/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_76/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.6852448738262</v>
+        <v>8.206426242576278</v>
       </c>
       <c r="C2">
-        <v>7.208485590645735</v>
+        <v>4.863483411788468</v>
       </c>
       <c r="D2">
-        <v>8.707119771669623</v>
+        <v>11.21403608622639</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>20.42726571676684</v>
+        <v>30.73165030247913</v>
       </c>
       <c r="G2">
-        <v>20.29943371305907</v>
+        <v>29.35521344251259</v>
       </c>
       <c r="H2">
-        <v>8.704652910371662</v>
+        <v>14.58005122708005</v>
       </c>
       <c r="I2">
-        <v>12.98841700065203</v>
+        <v>21.13998314545314</v>
       </c>
       <c r="J2">
-        <v>7.043228892053722</v>
+        <v>11.49171140042311</v>
       </c>
       <c r="K2">
-        <v>11.50974864038771</v>
+        <v>8.067221664488711</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>12.2748656954617</v>
+        <v>15.47126241210389</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>13.85612106603116</v>
+        <v>22.245556022343</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.93901086100514</v>
+        <v>7.876910275122402</v>
       </c>
       <c r="C3">
-        <v>6.868646983991339</v>
+        <v>4.695234419308715</v>
       </c>
       <c r="D3">
-        <v>8.348120480999391</v>
+        <v>11.16588721719967</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>20.30605748065994</v>
+        <v>30.81586903234069</v>
       </c>
       <c r="G3">
-        <v>20.29509396733561</v>
+        <v>29.48024257965406</v>
       </c>
       <c r="H3">
-        <v>8.801147445879497</v>
+        <v>14.63044173731923</v>
       </c>
       <c r="I3">
-        <v>13.21782127499735</v>
+        <v>21.23930357929753</v>
       </c>
       <c r="J3">
-        <v>7.004097438754925</v>
+        <v>11.51304148670034</v>
       </c>
       <c r="K3">
-        <v>10.93116730182386</v>
+        <v>7.843058258827648</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>11.69455773993036</v>
+        <v>15.3736111673862</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.97849842076256</v>
+        <v>22.33488485598711</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.45575812053847</v>
+        <v>7.667855336319391</v>
       </c>
       <c r="C4">
-        <v>6.650983689384921</v>
+        <v>4.588127871527969</v>
       </c>
       <c r="D4">
-        <v>8.123441543877755</v>
+        <v>11.13820383055632</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>20.24891356672618</v>
+        <v>30.87450130273371</v>
       </c>
       <c r="G4">
-        <v>20.31706366220785</v>
+        <v>29.56553701844482</v>
       </c>
       <c r="H4">
-        <v>8.865020541680249</v>
+        <v>14.6634650932043</v>
       </c>
       <c r="I4">
-        <v>13.36689328306764</v>
+        <v>21.30402097458916</v>
       </c>
       <c r="J4">
-        <v>6.983780541598794</v>
+        <v>11.52783204526006</v>
       </c>
       <c r="K4">
-        <v>10.55920209412127</v>
+        <v>7.702619107449617</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>11.32696678093832</v>
+        <v>15.31554616830352</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>14.0645248813722</v>
+        <v>22.3940108105435</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.25257748781438</v>
+        <v>7.581089853974728</v>
       </c>
       <c r="C5">
-        <v>6.560090035250611</v>
+        <v>4.543570433997799</v>
       </c>
       <c r="D5">
-        <v>8.030951722012791</v>
+        <v>11.12740412897781</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>20.22986435840471</v>
+        <v>30.90013177353175</v>
       </c>
       <c r="G5">
-        <v>20.33195281929473</v>
+        <v>29.6024312303738</v>
       </c>
       <c r="H5">
-        <v>8.892181405595434</v>
+        <v>14.67744671915179</v>
       </c>
       <c r="I5">
-        <v>13.429651191318</v>
+        <v>21.33133359212523</v>
       </c>
       <c r="J5">
-        <v>6.976418824042015</v>
+        <v>11.53428529420209</v>
       </c>
       <c r="K5">
-        <v>10.40351554477428</v>
+        <v>7.644763401607969</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>11.17452632977743</v>
+        <v>15.29237900984571</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>14.10221127922408</v>
+        <v>22.41918003728186</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.21846376755132</v>
+        <v>7.566591201137371</v>
       </c>
       <c r="C6">
-        <v>6.544866969865275</v>
+        <v>4.536118119501563</v>
       </c>
       <c r="D6">
-        <v>8.015541943004013</v>
+        <v>11.12564017155981</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>20.22695386328212</v>
+        <v>30.90449252747695</v>
       </c>
       <c r="G6">
-        <v>20.33477600558319</v>
+        <v>29.60868626174517</v>
       </c>
       <c r="H6">
-        <v>8.896758955686488</v>
+        <v>14.67980004000876</v>
       </c>
       <c r="I6">
-        <v>13.44019194552989</v>
+        <v>21.33592561285201</v>
       </c>
       <c r="J6">
-        <v>6.975251363395742</v>
+        <v>11.53538258007726</v>
       </c>
       <c r="K6">
-        <v>10.37741898953815</v>
+        <v>7.635121129224427</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>11.14906021128271</v>
+        <v>15.28856253848498</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>14.10862486223365</v>
+        <v>22.4234242693274</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.45304318678182</v>
+        <v>7.666691392050192</v>
       </c>
       <c r="C7">
-        <v>6.649766648777525</v>
+        <v>4.587530578305341</v>
       </c>
       <c r="D7">
-        <v>8.122197771030851</v>
+        <v>11.13805622133466</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>20.24863965393555</v>
+        <v>30.87483993415671</v>
       </c>
       <c r="G7">
-        <v>20.31724077304418</v>
+        <v>29.56602594858967</v>
       </c>
       <c r="H7">
-        <v>8.865382298241347</v>
+        <v>14.66365153065395</v>
       </c>
       <c r="I7">
-        <v>13.36773159058507</v>
+        <v>21.30438551605992</v>
       </c>
       <c r="J7">
-        <v>6.983677564808308</v>
+        <v>11.52791735122305</v>
       </c>
       <c r="K7">
-        <v>10.55711894260435</v>
+        <v>7.701841270109965</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>11.32492134595328</v>
+        <v>15.31523170027716</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>14.06502262354767</v>
+        <v>22.39434590019886</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.43317038628355</v>
+        <v>8.094272907352794</v>
       </c>
       <c r="C8">
-        <v>7.093215149522313</v>
+        <v>4.806285641476564</v>
       </c>
       <c r="D8">
-        <v>8.584297142627419</v>
+        <v>11.19704951190493</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>20.38182526262594</v>
+        <v>30.75925051863781</v>
       </c>
       <c r="G8">
-        <v>20.29267179341591</v>
+        <v>29.39654922701454</v>
       </c>
       <c r="H8">
-        <v>8.736945006228332</v>
+        <v>14.59699374475055</v>
       </c>
       <c r="I8">
-        <v>13.06577447992622</v>
+        <v>21.17345423449587</v>
       </c>
       <c r="J8">
-        <v>7.028957530278607</v>
+        <v>11.49871451098098</v>
       </c>
       <c r="K8">
-        <v>11.31377389524455</v>
+        <v>7.990557401918223</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>12.07722283591109</v>
+        <v>15.43721076135525</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>13.89599122887478</v>
+        <v>22.27546832678455</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.15490691207968</v>
+        <v>8.874841875238557</v>
       </c>
       <c r="C9">
-        <v>7.888958781742035</v>
+        <v>5.203362423760657</v>
       </c>
       <c r="D9">
-        <v>9.4514811850495</v>
+        <v>11.32724630834702</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>20.78440581819366</v>
+        <v>30.58763104553822</v>
       </c>
       <c r="G9">
-        <v>20.45097345221511</v>
+        <v>29.13219931228478</v>
       </c>
       <c r="H9">
-        <v>8.523280701580106</v>
+        <v>14.48278796847282</v>
       </c>
       <c r="I9">
-        <v>12.54168346106471</v>
+        <v>20.94629381516631</v>
       </c>
       <c r="J9">
-        <v>7.147813852357665</v>
+        <v>11.4548840341347</v>
       </c>
       <c r="K9">
-        <v>12.6617121806641</v>
+        <v>8.53129881155002</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>13.45598831268214</v>
+        <v>15.6905804739003</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>13.65594767833083</v>
+        <v>22.07632412770488</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.2967571363188</v>
+        <v>9.407873371701063</v>
       </c>
       <c r="C10">
-        <v>8.42603982995502</v>
+        <v>5.473627920081162</v>
       </c>
       <c r="D10">
-        <v>10.05888241364663</v>
+        <v>11.43116833391236</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>21.17154709516292</v>
+        <v>30.49526651373819</v>
       </c>
       <c r="G10">
-        <v>20.7072326986063</v>
+        <v>28.97988498070056</v>
       </c>
       <c r="H10">
-        <v>8.391845541801613</v>
+        <v>14.4089170912316</v>
       </c>
       <c r="I10">
-        <v>12.20259352870872</v>
+        <v>20.79739340874996</v>
       </c>
       <c r="J10">
-        <v>7.254240440324103</v>
+        <v>11.43086702879929</v>
       </c>
       <c r="K10">
-        <v>13.56599541895943</v>
+        <v>8.966193252156424</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>14.48494203194633</v>
+        <v>15.88418801328143</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>13.54258594877101</v>
+        <v>21.9507690879026</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.78947184565171</v>
+        <v>9.640721447796162</v>
       </c>
       <c r="C11">
-        <v>8.659691480960854</v>
+        <v>5.591572058001407</v>
       </c>
       <c r="D11">
-        <v>10.32778402461548</v>
+        <v>11.48010668338806</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>21.36839747375696</v>
+        <v>30.46059910077146</v>
       </c>
       <c r="G11">
-        <v>20.85687565841851</v>
+        <v>28.91978314590344</v>
       </c>
       <c r="H11">
-        <v>8.338148116572922</v>
+        <v>14.37748468030904</v>
       </c>
       <c r="I11">
-        <v>12.05947175996927</v>
+        <v>20.73355263820384</v>
       </c>
       <c r="J11">
-        <v>7.306947308051203</v>
+        <v>11.42171633649748</v>
       </c>
       <c r="K11">
-        <v>13.95827570275582</v>
+        <v>9.163090319819805</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>14.97993030505427</v>
+        <v>15.97362301517134</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>13.5063516619049</v>
+        <v>21.89816766136817</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.97221568766424</v>
+        <v>9.727451738839148</v>
       </c>
       <c r="C12">
-        <v>8.746614746466005</v>
+        <v>5.635491234234723</v>
       </c>
       <c r="D12">
-        <v>10.42848133306607</v>
+        <v>11.49886568920356</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>21.44597997240349</v>
+        <v>30.44853010023483</v>
       </c>
       <c r="G12">
-        <v>20.91848939908628</v>
+        <v>28.89835216379927</v>
       </c>
       <c r="H12">
-        <v>8.318740758368474</v>
+        <v>14.36589395963485</v>
       </c>
       <c r="I12">
-        <v>12.00698772975323</v>
+        <v>20.70993732323009</v>
       </c>
       <c r="J12">
-        <v>7.327533334353658</v>
+        <v>11.41850615230316</v>
       </c>
       <c r="K12">
-        <v>14.10405625259764</v>
+        <v>9.236360804344249</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>15.16352267847978</v>
+        <v>16.00766302929757</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>13.49497838484762</v>
+        <v>21.87889891700329</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.9330290081607</v>
+        <v>9.708837904622644</v>
       </c>
       <c r="C13">
-        <v>8.727963722890717</v>
+        <v>5.626065887634311</v>
       </c>
       <c r="D13">
-        <v>10.40684552185733</v>
+        <v>11.49481569746598</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>21.42913519053255</v>
+        <v>30.45108225855919</v>
       </c>
       <c r="G13">
-        <v>20.90499691674853</v>
+        <v>28.90290852251083</v>
       </c>
       <c r="H13">
-        <v>8.322878419787534</v>
+        <v>14.36837635406129</v>
       </c>
       <c r="I13">
-        <v>12.01821298868099</v>
+        <v>20.71499841033608</v>
       </c>
       <c r="J13">
-        <v>7.323071728742218</v>
+        <v>11.41918618654387</v>
       </c>
       <c r="K13">
-        <v>14.07278316732146</v>
+        <v>9.220638613260174</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>15.12415342721968</v>
+        <v>16.00032457980759</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>13.49732108618029</v>
+        <v>21.88301984656958</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.80458312741028</v>
+        <v>9.647886054674309</v>
       </c>
       <c r="C14">
-        <v>8.666873985790248</v>
+        <v>5.595200349413039</v>
       </c>
       <c r="D14">
-        <v>10.33609142565221</v>
+        <v>11.48164551706981</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>21.37471901902796</v>
+        <v>30.45958494729297</v>
       </c>
       <c r="G14">
-        <v>20.86184448381187</v>
+        <v>28.91799334532145</v>
       </c>
       <c r="H14">
-        <v>8.33653258618242</v>
+        <v>14.37652485218113</v>
       </c>
       <c r="I14">
-        <v>12.05511884534139</v>
+        <v>20.73159857416614</v>
       </c>
       <c r="J14">
-        <v>7.308628312148133</v>
+        <v>11.42144712391762</v>
       </c>
       <c r="K14">
-        <v>13.9703247237364</v>
+        <v>9.169144378455286</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>14.9951115083348</v>
+        <v>15.97642017412024</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>13.5053680889364</v>
+        <v>21.89656937117095</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.7254069588579</v>
+        <v>9.610361592835307</v>
       </c>
       <c r="C15">
-        <v>8.629251653881459</v>
+        <v>5.576196788999525</v>
       </c>
       <c r="D15">
-        <v>10.29260363779909</v>
+        <v>11.47360761245456</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>21.34178492922181</v>
+        <v>30.46493102688477</v>
       </c>
       <c r="G15">
-        <v>20.836061983305</v>
+        <v>28.92740642426544</v>
       </c>
       <c r="H15">
-        <v>8.345018404896573</v>
+        <v>14.38155667352342</v>
       </c>
       <c r="I15">
-        <v>12.07795139430744</v>
+        <v>20.74183954917062</v>
       </c>
       <c r="J15">
-        <v>7.299863242636421</v>
+        <v>11.42286521227708</v>
       </c>
       <c r="K15">
-        <v>13.90720501637354</v>
+        <v>9.13743363865407</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>14.91556934302128</v>
+        <v>15.96179987057059</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>13.5106071772153</v>
+        <v>21.90495356499432</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.26401975736448</v>
+        <v>9.392457135405397</v>
       </c>
       <c r="C16">
-        <v>8.410553485545465</v>
+        <v>5.465817185397431</v>
       </c>
       <c r="D16">
-        <v>10.04115419295969</v>
+        <v>11.42800254761865</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>21.15910488079247</v>
+        <v>30.49768017772342</v>
       </c>
       <c r="G16">
-        <v>20.69813549240915</v>
+        <v>28.98399826467641</v>
       </c>
       <c r="H16">
-        <v>8.395481634163801</v>
+        <v>14.41101495377945</v>
       </c>
       <c r="I16">
-        <v>12.21218018814692</v>
+        <v>20.80164390238471</v>
       </c>
       <c r="J16">
-        <v>7.250883160552833</v>
+        <v>11.4315007428526</v>
       </c>
       <c r="K16">
-        <v>13.53997278150536</v>
+        <v>8.953146934118095</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>14.4520530048237</v>
+        <v>15.87836867690804</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>13.5452746261498</v>
+        <v>21.9542976491853</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.9741323063998</v>
+        <v>9.256268122258108</v>
       </c>
       <c r="C17">
-        <v>8.273639388913329</v>
+        <v>5.396803468376405</v>
       </c>
       <c r="D17">
-        <v>9.884950881346539</v>
+        <v>11.40044292333986</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>21.05239188987458</v>
+        <v>30.51965463388863</v>
       </c>
       <c r="G17">
-        <v>20.62213494456838</v>
+        <v>29.02107373452129</v>
       </c>
       <c r="H17">
-        <v>8.428034515881571</v>
+        <v>14.42964272508894</v>
       </c>
       <c r="I17">
-        <v>12.29745230993513</v>
+        <v>20.83932927802568</v>
       </c>
       <c r="J17">
-        <v>7.221942200090052</v>
+        <v>11.43725277759638</v>
       </c>
       <c r="K17">
-        <v>13.30978062214716</v>
+        <v>8.837833205307817</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>14.16081082325916</v>
+        <v>15.82751893487612</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>13.57056979651283</v>
+        <v>21.9857256484154</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.80488105055981</v>
+        <v>9.177032276018092</v>
       </c>
       <c r="C18">
-        <v>8.193886626429023</v>
+        <v>5.356639136485838</v>
       </c>
       <c r="D18">
-        <v>9.794412633929166</v>
+        <v>11.38474870188176</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>20.9929625289974</v>
+        <v>30.53298545426865</v>
       </c>
       <c r="G18">
-        <v>20.58152387617372</v>
+        <v>29.04326285171281</v>
       </c>
       <c r="H18">
-        <v>8.44732833119364</v>
+        <v>14.44056136292042</v>
       </c>
       <c r="I18">
-        <v>12.34753890519791</v>
+        <v>20.86137151656176</v>
       </c>
       <c r="J18">
-        <v>7.20569966742457</v>
+        <v>11.44072826173091</v>
       </c>
       <c r="K18">
-        <v>13.17558480953101</v>
+        <v>8.770689544718943</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>13.99206220721958</v>
+        <v>15.7984010919197</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>13.58655345390694</v>
+        <v>22.00422703091716</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.74714334971071</v>
+        <v>9.150051151428537</v>
       </c>
       <c r="C19">
-        <v>8.166712131612607</v>
+        <v>5.34296035491808</v>
       </c>
       <c r="D19">
-        <v>9.76364086866451</v>
+        <v>11.37946229572791</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>20.97317363053727</v>
+        <v>30.53761777557356</v>
       </c>
       <c r="G19">
-        <v>20.56830032856992</v>
+        <v>29.05092392103634</v>
       </c>
       <c r="H19">
-        <v>8.453957351099401</v>
+        <v>14.44429334621243</v>
       </c>
       <c r="I19">
-        <v>12.3646728262335</v>
+        <v>20.86889761373595</v>
       </c>
       <c r="J19">
-        <v>7.20026922206659</v>
+        <v>11.4419337006544</v>
       </c>
       <c r="K19">
-        <v>13.12984091755537</v>
+        <v>8.747816538380629</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>13.94413907809838</v>
+        <v>15.78856524154754</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.59220734714678</v>
+        <v>22.01056421121928</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.00525166103731</v>
+        <v>9.270859644571972</v>
       </c>
       <c r="C20">
-        <v>8.28831815029096</v>
+        <v>5.404198872768598</v>
       </c>
       <c r="D20">
-        <v>9.901651346854962</v>
+        <v>11.40336049438503</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>21.0635494971012</v>
+        <v>30.51724381264065</v>
       </c>
       <c r="G20">
-        <v>20.62990278649562</v>
+        <v>29.01703748330032</v>
       </c>
       <c r="H20">
-        <v>8.424509832717826</v>
+        <v>14.42763861050664</v>
       </c>
       <c r="I20">
-        <v>12.28826650403397</v>
+        <v>20.83527966503748</v>
       </c>
       <c r="J20">
-        <v>7.2249811762279</v>
+        <v>11.43662317444732</v>
       </c>
       <c r="K20">
-        <v>13.33447098230555</v>
+        <v>8.850193520689723</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>14.19207691146287</v>
+        <v>15.83291873067167</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>13.56772759129648</v>
+        <v>21.98233610783638</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.84241484341234</v>
+        <v>9.665828716470246</v>
       </c>
       <c r="C21">
-        <v>8.684859878542103</v>
+        <v>5.604286670108136</v>
       </c>
       <c r="D21">
-        <v>10.35690474017793</v>
+        <v>11.48550785284846</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>21.39061946276209</v>
+        <v>30.45705875260513</v>
       </c>
       <c r="G21">
-        <v>20.87438370811658</v>
+        <v>28.91352646230696</v>
       </c>
       <c r="H21">
-        <v>8.332496454668487</v>
+        <v>14.37412297374019</v>
       </c>
       <c r="I21">
-        <v>12.04423124906791</v>
+        <v>20.72670751274037</v>
       </c>
       <c r="J21">
-        <v>7.312853601133179</v>
+        <v>11.42077611365201</v>
       </c>
       <c r="K21">
-        <v>14.00049450402508</v>
+        <v>9.184304769339663</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>15.03311844225961</v>
+        <v>15.98343696828737</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>13.50293961126784</v>
+        <v>21.89257188999861</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.36719391112302</v>
+        <v>9.915524165877301</v>
       </c>
       <c r="C22">
-        <v>8.934950266242609</v>
+        <v>5.730711515907385</v>
       </c>
       <c r="D22">
-        <v>10.64783141761747</v>
+        <v>11.54051383563559</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>21.62211576316939</v>
+        <v>30.42389643819835</v>
       </c>
       <c r="G22">
-        <v>21.0630762950342</v>
+        <v>28.85362133286566</v>
       </c>
       <c r="H22">
-        <v>8.277788087657669</v>
+        <v>14.34096617610435</v>
       </c>
       <c r="I22">
-        <v>11.89478677525628</v>
+        <v>20.65901218369729</v>
       </c>
       <c r="J22">
-        <v>7.373942409137421</v>
+        <v>11.41190524594058</v>
       </c>
       <c r="K22">
-        <v>14.41964346937538</v>
+        <v>9.395131967285476</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>15.56036981686221</v>
+        <v>16.08280648429792</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>13.47435099935058</v>
+        <v>21.83769661119166</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.08915158156558</v>
+        <v>9.783046656601782</v>
       </c>
       <c r="C23">
-        <v>8.802307929801954</v>
+        <v>5.663640981752681</v>
       </c>
       <c r="D23">
-        <v>10.4931813178539</v>
+        <v>11.51103961101584</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>21.49692219672681</v>
+        <v>30.44103050371782</v>
       </c>
       <c r="G23">
-        <v>20.9596642635848</v>
+        <v>28.88488283990374</v>
       </c>
       <c r="H23">
-        <v>8.306472636714474</v>
+        <v>14.35849624641468</v>
       </c>
       <c r="I23">
-        <v>11.97358831642834</v>
+        <v>20.69484397929937</v>
       </c>
       <c r="J23">
-        <v>7.341000327954355</v>
+        <v>11.41650390430702</v>
       </c>
       <c r="K23">
-        <v>14.19741773732796</v>
+        <v>9.283309867121984</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>15.28100593514826</v>
+        <v>16.0296874886984</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>13.48830260398728</v>
+        <v>21.86663734220573</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.9911906718561</v>
+        <v>9.264265737421848</v>
       </c>
       <c r="C24">
-        <v>8.281685116916607</v>
+        <v>5.400856926788656</v>
       </c>
       <c r="D24">
-        <v>9.894103350364084</v>
+        <v>11.40204099183047</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>21.05849916272303</v>
+        <v>30.51833157269347</v>
       </c>
       <c r="G24">
-        <v>20.62638135816336</v>
+        <v>29.01885955078765</v>
       </c>
       <c r="H24">
-        <v>8.426101543137078</v>
+        <v>14.4285440187812</v>
       </c>
       <c r="I24">
-        <v>12.29241610571585</v>
+        <v>20.83710932254159</v>
       </c>
       <c r="J24">
-        <v>7.223606022377771</v>
+        <v>11.43690729295882</v>
       </c>
       <c r="K24">
-        <v>13.32331424737133</v>
+        <v>8.844608061398974</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>14.17794966883541</v>
+        <v>15.83047711883076</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>13.56900807425383</v>
+        <v>21.98386717042772</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.71071899726476</v>
+        <v>8.670455120499511</v>
       </c>
       <c r="C25">
-        <v>7.681892828434816</v>
+        <v>5.099582617556975</v>
       </c>
       <c r="D25">
-        <v>9.22173012119247</v>
+        <v>11.29052899210865</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>20.65978590633559</v>
+        <v>30.62814690599376</v>
       </c>
       <c r="G25">
-        <v>20.38453354958819</v>
+        <v>29.19638587668847</v>
       </c>
       <c r="H25">
-        <v>8.576771248904981</v>
+        <v>14.51191918284475</v>
       </c>
       <c r="I25">
-        <v>12.67575021246702</v>
+        <v>21.00458343996349</v>
       </c>
       <c r="J25">
-        <v>7.112356837136458</v>
+        <v>11.46530331972423</v>
       </c>
       <c r="K25">
-        <v>12.31199008592577</v>
+        <v>8.38816011005347</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>13.09419709338928</v>
+        <v>15.62064020696223</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>13.71036701682</v>
+        <v>22.12655615750435</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_76/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_76/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.206426242576278</v>
+        <v>12.68524487382623</v>
       </c>
       <c r="C2">
-        <v>4.863483411788468</v>
+        <v>7.208485590645812</v>
       </c>
       <c r="D2">
-        <v>11.21403608622639</v>
+        <v>8.707119771669646</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>30.73165030247913</v>
+        <v>20.42726571676664</v>
       </c>
       <c r="G2">
-        <v>29.35521344251259</v>
+        <v>20.29943371305901</v>
       </c>
       <c r="H2">
-        <v>14.58005122708005</v>
+        <v>8.70465291037161</v>
       </c>
       <c r="I2">
-        <v>21.13998314545314</v>
+        <v>12.98841700065195</v>
       </c>
       <c r="J2">
-        <v>11.49171140042311</v>
+        <v>7.043228892053706</v>
       </c>
       <c r="K2">
-        <v>8.067221664488711</v>
+        <v>11.50974864038777</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.47126241210389</v>
+        <v>12.27486569546165</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>22.245556022343</v>
+        <v>13.85612106603104</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.876910275122402</v>
+        <v>11.93901086100514</v>
       </c>
       <c r="C3">
-        <v>4.695234419308715</v>
+        <v>6.868646983991407</v>
       </c>
       <c r="D3">
-        <v>11.16588721719967</v>
+        <v>8.348120480999366</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>30.81586903234069</v>
+        <v>20.30605748065979</v>
       </c>
       <c r="G3">
-        <v>29.48024257965406</v>
+        <v>20.2950939673354</v>
       </c>
       <c r="H3">
-        <v>14.63044173731923</v>
+        <v>8.801147445879497</v>
       </c>
       <c r="I3">
-        <v>21.23930357929753</v>
+        <v>13.21782127499732</v>
       </c>
       <c r="J3">
-        <v>11.51304148670034</v>
+        <v>7.004097438754949</v>
       </c>
       <c r="K3">
-        <v>7.843058258827648</v>
+        <v>10.93116730182387</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.3736111673862</v>
+        <v>11.69455773993033</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>22.33488485598711</v>
+        <v>13.97849842076244</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.667855336319391</v>
+        <v>11.4557581205385</v>
       </c>
       <c r="C4">
-        <v>4.588127871527969</v>
+        <v>6.650983689385019</v>
       </c>
       <c r="D4">
-        <v>11.13820383055632</v>
+        <v>8.123441543877703</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>30.87450130273371</v>
+        <v>20.24891356672591</v>
       </c>
       <c r="G4">
-        <v>29.56553701844482</v>
+        <v>20.31706366220766</v>
       </c>
       <c r="H4">
-        <v>14.6634650932043</v>
+        <v>8.865020541680193</v>
       </c>
       <c r="I4">
-        <v>21.30402097458916</v>
+        <v>13.36689328306755</v>
       </c>
       <c r="J4">
-        <v>11.52783204526006</v>
+        <v>6.983780541598749</v>
       </c>
       <c r="K4">
-        <v>7.702619107449617</v>
+        <v>10.55920209412133</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.31554616830352</v>
+        <v>11.32696678093827</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>22.3940108105435</v>
+        <v>14.06452488137206</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.581089853974728</v>
+        <v>11.25257748781438</v>
       </c>
       <c r="C5">
-        <v>4.543570433997799</v>
+        <v>6.560090035250626</v>
       </c>
       <c r="D5">
-        <v>11.12740412897781</v>
+        <v>8.030951722012713</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>30.90013177353175</v>
+        <v>20.22986435840459</v>
       </c>
       <c r="G5">
-        <v>29.6024312303738</v>
+        <v>20.33195281929471</v>
       </c>
       <c r="H5">
-        <v>14.67744671915179</v>
+        <v>8.892181405595426</v>
       </c>
       <c r="I5">
-        <v>21.33133359212523</v>
+        <v>13.429651191318</v>
       </c>
       <c r="J5">
-        <v>11.53428529420209</v>
+        <v>6.976418824042015</v>
       </c>
       <c r="K5">
-        <v>7.644763401607969</v>
+        <v>10.40351554477427</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.29237900984571</v>
+        <v>11.17452632977741</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>22.41918003728186</v>
+        <v>14.10221127922408</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.566591201137371</v>
+        <v>11.21846376755129</v>
       </c>
       <c r="C6">
-        <v>4.536118119501563</v>
+        <v>6.544866969865347</v>
       </c>
       <c r="D6">
-        <v>11.12564017155981</v>
+        <v>8.015541943003926</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>30.90449252747695</v>
+        <v>20.22695386328199</v>
       </c>
       <c r="G6">
-        <v>29.60868626174517</v>
+        <v>20.33477600558314</v>
       </c>
       <c r="H6">
-        <v>14.67980004000876</v>
+        <v>8.896758955686492</v>
       </c>
       <c r="I6">
-        <v>21.33592561285201</v>
+        <v>13.44019194552988</v>
       </c>
       <c r="J6">
-        <v>11.53538258007726</v>
+        <v>6.975251363395774</v>
       </c>
       <c r="K6">
-        <v>7.635121129224427</v>
+        <v>10.37741898953812</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.28856253848498</v>
+        <v>11.14906021128271</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>22.4234242693274</v>
+        <v>14.10862486223364</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.666691392050192</v>
+        <v>11.45304318678183</v>
       </c>
       <c r="C7">
-        <v>4.587530578305341</v>
+        <v>6.649766648777609</v>
       </c>
       <c r="D7">
-        <v>11.13805622133466</v>
+        <v>8.122197771030807</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>30.87483993415671</v>
+        <v>20.24863965393546</v>
       </c>
       <c r="G7">
-        <v>29.56602594858967</v>
+        <v>20.31724077304406</v>
       </c>
       <c r="H7">
-        <v>14.66365153065395</v>
+        <v>8.865382298241284</v>
       </c>
       <c r="I7">
-        <v>21.30438551605992</v>
+        <v>13.36773159058506</v>
       </c>
       <c r="J7">
-        <v>11.52791735122305</v>
+        <v>6.983677564808246</v>
       </c>
       <c r="K7">
-        <v>7.701841270109965</v>
+        <v>10.55711894260439</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.31523170027716</v>
+        <v>11.32492134595322</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>22.39434590019886</v>
+        <v>14.06502262354761</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.094272907352794</v>
+        <v>12.43317038628357</v>
       </c>
       <c r="C8">
-        <v>4.806285641476564</v>
+        <v>7.093215149522273</v>
       </c>
       <c r="D8">
-        <v>11.19704951190493</v>
+        <v>8.584297142627538</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>30.75925051863781</v>
+        <v>20.3818252626261</v>
       </c>
       <c r="G8">
-        <v>29.39654922701454</v>
+        <v>20.29267179341592</v>
       </c>
       <c r="H8">
-        <v>14.59699374475055</v>
+        <v>8.736945006228341</v>
       </c>
       <c r="I8">
-        <v>21.17345423449587</v>
+        <v>13.06577447992623</v>
       </c>
       <c r="J8">
-        <v>11.49871451098098</v>
+        <v>7.028957530278578</v>
       </c>
       <c r="K8">
-        <v>7.990557401918223</v>
+        <v>11.31377389524453</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.43721076135525</v>
+        <v>12.07722283591111</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>22.27546832678455</v>
+        <v>13.8959912288748</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.874841875238557</v>
+        <v>14.15490691207973</v>
       </c>
       <c r="C9">
-        <v>5.203362423760657</v>
+        <v>7.888958781742006</v>
       </c>
       <c r="D9">
-        <v>11.32724630834702</v>
+        <v>9.451481185049529</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>30.58763104553822</v>
+        <v>20.78440581819369</v>
       </c>
       <c r="G9">
-        <v>29.13219931228478</v>
+        <v>20.45097345221518</v>
       </c>
       <c r="H9">
-        <v>14.48278796847282</v>
+        <v>8.52328070157999</v>
       </c>
       <c r="I9">
-        <v>20.94629381516631</v>
+        <v>12.54168346106474</v>
       </c>
       <c r="J9">
-        <v>11.4548840341347</v>
+        <v>7.147813852357674</v>
       </c>
       <c r="K9">
-        <v>8.53129881155002</v>
+        <v>12.66171218066412</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>15.6905804739003</v>
+        <v>13.45598831268213</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>22.07632412770488</v>
+        <v>13.6559476783308</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.407873371701063</v>
+        <v>15.29675713631885</v>
       </c>
       <c r="C10">
-        <v>5.473627920081162</v>
+        <v>8.426039829955091</v>
       </c>
       <c r="D10">
-        <v>11.43116833391236</v>
+        <v>10.05888241364662</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>30.49526651373819</v>
+        <v>21.17154709516282</v>
       </c>
       <c r="G10">
-        <v>28.97988498070056</v>
+        <v>20.70723269860608</v>
       </c>
       <c r="H10">
-        <v>14.4089170912316</v>
+        <v>8.391845541801624</v>
       </c>
       <c r="I10">
-        <v>20.79739340874996</v>
+        <v>12.20259352870865</v>
       </c>
       <c r="J10">
-        <v>11.43086702879929</v>
+        <v>7.254240440324146</v>
       </c>
       <c r="K10">
-        <v>8.966193252156424</v>
+        <v>13.56599541895952</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>15.88418801328143</v>
+        <v>14.48494203194637</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>21.9507690879026</v>
+        <v>13.54258594877091</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.640721447796162</v>
+        <v>15.78947184565168</v>
       </c>
       <c r="C11">
-        <v>5.591572058001407</v>
+        <v>8.659691480960891</v>
       </c>
       <c r="D11">
-        <v>11.48010668338806</v>
+        <v>10.3277840246155</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>30.46059910077146</v>
+        <v>21.36839747375693</v>
       </c>
       <c r="G11">
-        <v>28.91978314590344</v>
+        <v>20.8568756584184</v>
       </c>
       <c r="H11">
-        <v>14.37748468030904</v>
+        <v>8.338148116572935</v>
       </c>
       <c r="I11">
-        <v>20.73355263820384</v>
+        <v>12.05947175996921</v>
       </c>
       <c r="J11">
-        <v>11.42171633649748</v>
+        <v>7.306947308051242</v>
       </c>
       <c r="K11">
-        <v>9.163090319819805</v>
+        <v>13.95827570275582</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>15.97362301517134</v>
+        <v>14.97993030505423</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>21.89816766136817</v>
+        <v>13.50635166190485</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.727451738839148</v>
+        <v>15.97221568766428</v>
       </c>
       <c r="C12">
-        <v>5.635491234234723</v>
+        <v>8.746614746466058</v>
       </c>
       <c r="D12">
-        <v>11.49886568920356</v>
+        <v>10.42848133306606</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>30.44853010023483</v>
+        <v>21.44597997240345</v>
       </c>
       <c r="G12">
-        <v>28.89835216379927</v>
+        <v>20.91848939908636</v>
       </c>
       <c r="H12">
-        <v>14.36589395963485</v>
+        <v>8.318740758368424</v>
       </c>
       <c r="I12">
-        <v>20.70993732323009</v>
+        <v>12.00698772975325</v>
       </c>
       <c r="J12">
-        <v>11.41850615230316</v>
+        <v>7.327533334353721</v>
       </c>
       <c r="K12">
-        <v>9.236360804344249</v>
+        <v>14.10405625259767</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>16.00766302929757</v>
+        <v>15.16352267847978</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>21.87889891700329</v>
+        <v>13.49497838484758</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.708837904622644</v>
+        <v>15.93302900816065</v>
       </c>
       <c r="C13">
-        <v>5.626065887634311</v>
+        <v>8.72796372289087</v>
       </c>
       <c r="D13">
-        <v>11.49481569746598</v>
+        <v>10.40684552185735</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>30.45108225855919</v>
+        <v>21.4291351905327</v>
       </c>
       <c r="G13">
-        <v>28.90290852251083</v>
+        <v>20.90499691674863</v>
       </c>
       <c r="H13">
-        <v>14.36837635406129</v>
+        <v>8.322878419787585</v>
       </c>
       <c r="I13">
-        <v>20.71499841033608</v>
+        <v>12.01821298868112</v>
       </c>
       <c r="J13">
-        <v>11.41918618654387</v>
+        <v>7.323071728742246</v>
       </c>
       <c r="K13">
-        <v>9.220638613260174</v>
+        <v>14.07278316732145</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>16.00032457980759</v>
+        <v>15.12415342721963</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>21.88301984656958</v>
+        <v>13.4973210861804</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.647886054674309</v>
+        <v>15.80458312741036</v>
       </c>
       <c r="C14">
-        <v>5.595200349413039</v>
+        <v>8.666873985790248</v>
       </c>
       <c r="D14">
-        <v>11.48164551706981</v>
+        <v>10.33609142565223</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>30.45958494729297</v>
+        <v>21.37471901902795</v>
       </c>
       <c r="G14">
-        <v>28.91799334532145</v>
+        <v>20.86184448381172</v>
       </c>
       <c r="H14">
-        <v>14.37652485218113</v>
+        <v>8.336532586182424</v>
       </c>
       <c r="I14">
-        <v>20.73159857416614</v>
+        <v>12.05511884534127</v>
       </c>
       <c r="J14">
-        <v>11.42144712391762</v>
+        <v>7.308628312148094</v>
       </c>
       <c r="K14">
-        <v>9.169144378455286</v>
+        <v>13.97032472373644</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>15.97642017412024</v>
+        <v>14.99511150833482</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>21.89656937117095</v>
+        <v>13.50536808893633</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.610361592835307</v>
+        <v>15.72540695885779</v>
       </c>
       <c r="C15">
-        <v>5.576196788999525</v>
+        <v>8.62925165388161</v>
       </c>
       <c r="D15">
-        <v>11.47360761245456</v>
+        <v>10.2926036377991</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>30.46493102688477</v>
+        <v>21.34178492922186</v>
       </c>
       <c r="G15">
-        <v>28.92740642426544</v>
+        <v>20.83606198330497</v>
       </c>
       <c r="H15">
-        <v>14.38155667352342</v>
+        <v>8.345018404896635</v>
       </c>
       <c r="I15">
-        <v>20.74183954917062</v>
+        <v>12.07795139430754</v>
       </c>
       <c r="J15">
-        <v>11.42286521227708</v>
+        <v>7.299863242636404</v>
       </c>
       <c r="K15">
-        <v>9.13743363865407</v>
+        <v>13.90720501637353</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>15.96179987057059</v>
+        <v>14.91556934302128</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>21.90495356499432</v>
+        <v>13.51060717721532</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9.392457135405397</v>
+        <v>15.2640197573645</v>
       </c>
       <c r="C16">
-        <v>5.465817185397431</v>
+        <v>8.410553485545549</v>
       </c>
       <c r="D16">
-        <v>11.42800254761865</v>
+        <v>10.04115419295971</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>30.49768017772342</v>
+        <v>21.15910488079237</v>
       </c>
       <c r="G16">
-        <v>28.98399826467641</v>
+        <v>20.69813549240884</v>
       </c>
       <c r="H16">
-        <v>14.41101495377945</v>
+        <v>8.395481634163742</v>
       </c>
       <c r="I16">
-        <v>20.80164390238471</v>
+        <v>12.2121801881468</v>
       </c>
       <c r="J16">
-        <v>11.4315007428526</v>
+        <v>7.250883160552898</v>
       </c>
       <c r="K16">
-        <v>8.953146934118095</v>
+        <v>13.53997278150542</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>15.87836867690804</v>
+        <v>14.45205300482371</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>21.9542976491853</v>
+        <v>13.54527462614964</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.256268122258108</v>
+        <v>14.97413230639971</v>
       </c>
       <c r="C17">
-        <v>5.396803468376405</v>
+        <v>8.273639388913443</v>
       </c>
       <c r="D17">
-        <v>11.40044292333986</v>
+        <v>9.884950881346507</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>30.51965463388863</v>
+        <v>21.05239188987471</v>
       </c>
       <c r="G17">
-        <v>29.02107373452129</v>
+        <v>20.62213494456859</v>
       </c>
       <c r="H17">
-        <v>14.42964272508894</v>
+        <v>8.428034515881633</v>
       </c>
       <c r="I17">
-        <v>20.83932927802568</v>
+        <v>12.29745230993537</v>
       </c>
       <c r="J17">
-        <v>11.43725277759638</v>
+        <v>7.221942200090004</v>
       </c>
       <c r="K17">
-        <v>8.837833205307817</v>
+        <v>13.30978062214711</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.82751893487612</v>
+        <v>14.16081082325915</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>21.9857256484154</v>
+        <v>13.57056979651303</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.177032276018092</v>
+        <v>14.80488105055978</v>
       </c>
       <c r="C18">
-        <v>5.356639136485838</v>
+        <v>8.193886626428894</v>
       </c>
       <c r="D18">
-        <v>11.38474870188176</v>
+        <v>9.794412633929117</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>30.53298545426865</v>
+        <v>20.99296252899748</v>
       </c>
       <c r="G18">
-        <v>29.04326285171281</v>
+        <v>20.58152387617394</v>
       </c>
       <c r="H18">
-        <v>14.44056136292042</v>
+        <v>8.447328331193759</v>
       </c>
       <c r="I18">
-        <v>20.86137151656176</v>
+        <v>12.34753890519799</v>
       </c>
       <c r="J18">
-        <v>11.44072826173091</v>
+        <v>7.205699667424572</v>
       </c>
       <c r="K18">
-        <v>8.770689544718943</v>
+        <v>13.17558480953098</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.7984010919197</v>
+        <v>13.99206220721958</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>22.00422703091716</v>
+        <v>13.58655345390704</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.150051151428537</v>
+        <v>14.74714334971079</v>
       </c>
       <c r="C19">
-        <v>5.34296035491808</v>
+        <v>8.166712131612508</v>
       </c>
       <c r="D19">
-        <v>11.37946229572791</v>
+        <v>9.76364086866451</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>30.53761777557356</v>
+        <v>20.9731736305373</v>
       </c>
       <c r="G19">
-        <v>29.05092392103634</v>
+        <v>20.56830032857004</v>
       </c>
       <c r="H19">
-        <v>14.44429334621243</v>
+        <v>8.453957351099408</v>
       </c>
       <c r="I19">
-        <v>20.86889761373595</v>
+        <v>12.36467282623351</v>
       </c>
       <c r="J19">
-        <v>11.4419337006544</v>
+        <v>7.200269222066637</v>
       </c>
       <c r="K19">
-        <v>8.747816538380629</v>
+        <v>13.12984091755536</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>15.78856524154754</v>
+        <v>13.94413907809839</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>22.01056421121928</v>
+        <v>13.59220734714682</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.270859644571972</v>
+        <v>15.00525166103731</v>
       </c>
       <c r="C20">
-        <v>5.404198872768598</v>
+        <v>8.288318150291172</v>
       </c>
       <c r="D20">
-        <v>11.40336049438503</v>
+        <v>9.901651346854987</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>30.51724381264065</v>
+        <v>21.06354949710114</v>
       </c>
       <c r="G20">
-        <v>29.01703748330032</v>
+        <v>20.62990278649557</v>
       </c>
       <c r="H20">
-        <v>14.42763861050664</v>
+        <v>8.42450983271778</v>
       </c>
       <c r="I20">
-        <v>20.83527966503748</v>
+        <v>12.28826650403398</v>
       </c>
       <c r="J20">
-        <v>11.43662317444732</v>
+        <v>7.224981176227861</v>
       </c>
       <c r="K20">
-        <v>8.850193520689723</v>
+        <v>13.33447098230561</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.83291873067167</v>
+        <v>14.19207691146291</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>21.98233610783638</v>
+        <v>13.56772759129639</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.665828716470246</v>
+        <v>15.84241484341238</v>
       </c>
       <c r="C21">
-        <v>5.604286670108136</v>
+        <v>8.684859878542159</v>
       </c>
       <c r="D21">
-        <v>11.48550785284846</v>
+        <v>10.35690474017796</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>30.45705875260513</v>
+        <v>21.39061946276204</v>
       </c>
       <c r="G21">
-        <v>28.91352646230696</v>
+        <v>20.87438370811665</v>
       </c>
       <c r="H21">
-        <v>14.37412297374019</v>
+        <v>8.332496454668437</v>
       </c>
       <c r="I21">
-        <v>20.72670751274037</v>
+        <v>12.04423124906784</v>
       </c>
       <c r="J21">
-        <v>11.42077611365201</v>
+        <v>7.312853601133177</v>
       </c>
       <c r="K21">
-        <v>9.184304769339663</v>
+        <v>14.00049450402508</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>15.98343696828737</v>
+        <v>15.0331184422596</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>21.89257188999861</v>
+        <v>13.50293961126779</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.915524165877301</v>
+        <v>16.36719391112315</v>
       </c>
       <c r="C22">
-        <v>5.730711515907385</v>
+        <v>8.934950266242641</v>
       </c>
       <c r="D22">
-        <v>11.54051383563559</v>
+        <v>10.64783141761753</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>30.42389643819835</v>
+        <v>21.62211576316935</v>
       </c>
       <c r="G22">
-        <v>28.85362133286566</v>
+        <v>21.06307629503408</v>
       </c>
       <c r="H22">
-        <v>14.34096617610435</v>
+        <v>8.27778808765763</v>
       </c>
       <c r="I22">
-        <v>20.65901218369729</v>
+        <v>11.89478677525616</v>
       </c>
       <c r="J22">
-        <v>11.41190524594058</v>
+        <v>7.37394240913747</v>
       </c>
       <c r="K22">
-        <v>9.395131967285476</v>
+        <v>14.4196434693755</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>16.08280648429792</v>
+        <v>15.56036981686223</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>21.83769661119166</v>
+        <v>13.47435099935045</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.783046656601782</v>
+        <v>16.08915158156556</v>
       </c>
       <c r="C23">
-        <v>5.663640981752681</v>
+        <v>8.802307929802023</v>
       </c>
       <c r="D23">
-        <v>11.51103961101584</v>
+        <v>10.49318131785396</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>30.44103050371782</v>
+        <v>21.49692219672696</v>
       </c>
       <c r="G23">
-        <v>28.88488283990374</v>
+        <v>20.95966426358493</v>
       </c>
       <c r="H23">
-        <v>14.35849624641468</v>
+        <v>8.306472636714588</v>
       </c>
       <c r="I23">
-        <v>20.69484397929937</v>
+        <v>11.97358831642845</v>
       </c>
       <c r="J23">
-        <v>11.41650390430702</v>
+        <v>7.341000327954331</v>
       </c>
       <c r="K23">
-        <v>9.283309867121984</v>
+        <v>14.19741773732798</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>16.0296874886984</v>
+        <v>15.28100593514825</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>21.86663734220573</v>
+        <v>13.4883026039874</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.264265737421848</v>
+        <v>14.9911906718561</v>
       </c>
       <c r="C24">
-        <v>5.400856926788656</v>
+        <v>8.281685116916634</v>
       </c>
       <c r="D24">
-        <v>11.40204099183047</v>
+        <v>9.894103350364155</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>30.51833157269347</v>
+        <v>21.05849916272322</v>
       </c>
       <c r="G24">
-        <v>29.01885955078765</v>
+        <v>20.6263813581636</v>
       </c>
       <c r="H24">
-        <v>14.4285440187812</v>
+        <v>8.426101543137086</v>
       </c>
       <c r="I24">
-        <v>20.83710932254159</v>
+        <v>12.2924161057159</v>
       </c>
       <c r="J24">
-        <v>11.43690729295882</v>
+        <v>7.223606022377782</v>
       </c>
       <c r="K24">
-        <v>8.844608061398974</v>
+        <v>13.32331424737134</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.83047711883076</v>
+        <v>14.17794966883539</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>21.98386717042772</v>
+        <v>13.56900807425391</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.670455120499511</v>
+        <v>13.71071899726481</v>
       </c>
       <c r="C25">
-        <v>5.099582617556975</v>
+        <v>7.681892828434698</v>
       </c>
       <c r="D25">
-        <v>11.29052899210865</v>
+        <v>9.221730121192467</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>30.62814690599376</v>
+        <v>20.65978590633559</v>
       </c>
       <c r="G25">
-        <v>29.19638587668847</v>
+        <v>20.38453354958823</v>
       </c>
       <c r="H25">
-        <v>14.51191918284475</v>
+        <v>8.576771248904985</v>
       </c>
       <c r="I25">
-        <v>21.00458343996349</v>
+        <v>12.67575021246696</v>
       </c>
       <c r="J25">
-        <v>11.46530331972423</v>
+        <v>7.112356837136559</v>
       </c>
       <c r="K25">
-        <v>8.38816011005347</v>
+        <v>12.31199008592577</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.62064020696223</v>
+        <v>13.0941970933893</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>22.12655615750435</v>
+        <v>13.71036701682001</v>
       </c>
     </row>
   </sheetData>
